--- a/ServoTimings.xlsx
+++ b/ServoTimings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tics per second</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Degrees</t>
+  </si>
+  <si>
+    <t>% of 180</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +524,94 @@
         <v>180</v>
       </c>
     </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>700</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <f>((K13-K11)/2)+K11</f>
+        <v>1400</v>
+      </c>
+      <c r="M12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>2100</v>
+      </c>
+      <c r="M13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f>M15/$M$13</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>(G15*($K$13-$K$11)+$K$11)</f>
+        <v>700</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <f>M16/$M$13</f>
+        <v>0.25</v>
+      </c>
+      <c r="H16">
+        <f>(G16*($K$13-$K$11)+$K$11)</f>
+        <v>1050</v>
+      </c>
+      <c r="M16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>M17/$M$13</f>
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <f>(G17*($K$13-$K$11)+$K$11)</f>
+        <v>1400</v>
+      </c>
+      <c r="M17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f>M18/$M$13</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>(G18*($K$13-$K$11)+$K$11)</f>
+        <v>2100</v>
+      </c>
+      <c r="M18">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
